--- a/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelGiaGiaoDichDat.xlsx
+++ b/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelGiaGiaoDichDat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CSDLGia_ASP\CSDLGia_ASP\wwwroot\UpLoad\File\DinhGia\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\csdl gia\CSDLGia_ASP\CSDLGia_ASP\wwwroot\UpLoad\File\DinhGia\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{123F409F-B3CB-4BEE-B18D-E9F683FF5B89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE7513BE-BD41-41AC-875A-7375CB1F5DE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6AF4210B-D7D1-451E-A048-5B80F2CEA5CC}"/>
+    <workbookView xWindow="3945" yWindow="3315" windowWidth="21600" windowHeight="11385" xr2:uid="{6AF4210B-D7D1-451E-A048-5B80F2CEA5CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Phân loại</t>
   </si>
@@ -40,19 +40,41 @@
   </si>
   <si>
     <t>Nhà trong ngõ</t>
+  </si>
+  <si>
+    <t>Bảng giá đất giao dịch thực tế</t>
+  </si>
+  <si>
+    <t>Mã nhóm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -76,8 +98,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -96,9 +123,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -136,7 +163,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -242,7 +269,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -384,7 +411,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -392,45 +419,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD0BC2B6-4560-4170-B0EA-9A729F87B874}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="2" width="25.7109375" customWidth="1"/>
-    <col min="3" max="3" width="38.42578125" customWidth="1"/>
+    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.28515625" customWidth="1"/>
     <col min="5" max="5" width="19.140625" customWidth="1"/>
     <col min="6" max="6" width="27.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+    </row>
+    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>5000</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelGiaGiaoDichDat.xlsx
+++ b/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelGiaGiaoDichDat.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\csdl gia\CSDLGia_ASP\CSDLGia_ASP\wwwroot\UpLoad\File\DinhGia\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\excel csdlgia\CSDLGia_ASP\CSDLGia_ASP\wwwroot\UpLoad\File\DinhGia\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE7513BE-BD41-41AC-875A-7375CB1F5DE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C11F29EF-B0F5-4848-AB97-01CAB3792419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3945" yWindow="3315" windowWidth="21600" windowHeight="11385" xr2:uid="{6AF4210B-D7D1-451E-A048-5B80F2CEA5CC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6AF4210B-D7D1-451E-A048-5B80F2CEA5CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,10 +42,10 @@
     <t>Nhà trong ngõ</t>
   </si>
   <si>
-    <t>Bảng giá đất giao dịch thực tế</t>
-  </si>
-  <si>
     <t>Mã nhóm</t>
+  </si>
+  <si>
+    <t>BẢNG GIÁ ĐẤT GIAO DỊCH THỰC TẾ</t>
   </si>
 </sst>
 </file>
@@ -56,7 +56,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -65,7 +65,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -73,7 +73,7 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -86,7 +86,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -94,15 +94,45 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -123,9 +153,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -163,7 +193,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -269,7 +299,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -411,7 +441,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -422,55 +452,62 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" customWidth="1"/>
-    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" customWidth="1"/>
-    <col min="6" max="6" width="27.140625" customWidth="1"/>
+    <col min="2" max="2" width="25.75" customWidth="1"/>
+    <col min="3" max="3" width="19" style="6" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="19.125" customWidth="1"/>
+    <col min="6" max="6" width="27.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+    </row>
+    <row r="2" spans="1:4" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="5">
         <v>5000</v>
       </c>
+      <c r="D3" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Lỗi định dạng giá trị" error="Giá trị vừa nhập có định dạng không hợp lệ" sqref="C3:C1048576" xr:uid="{2EB0ECAC-23C5-4AC5-BCC9-984AE2B8D5C0}">
+      <formula1>0</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>